--- a/financial_projection_and_sensitivity/5yr_CashFlow_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/5yr_CashFlow_Hazira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A85B43-61E2-7A4A-B3C3-0B2995AF7D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D50C2-5194-734F-8ED1-24579EB49DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="500" windowWidth="17840" windowHeight="15680" activeTab="1" xr2:uid="{4FDEE020-B19C-CD4F-AABD-53E7D007E88B}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="17840" windowHeight="15680" activeTab="1" xr2:uid="{4FDEE020-B19C-CD4F-AABD-53E7D007E88B}"/>
   </bookViews>
   <sheets>
     <sheet name="Depreciation_Schedule" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9397E6-CE87-E540-9924-21285156A04C}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>

--- a/financial_projection_and_sensitivity/5yr_CashFlow_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/5yr_CashFlow_Hazira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4D50C2-5194-734F-8ED1-24579EB49DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDBEBC-1857-3340-9C5C-780DCF3E6EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="17840" windowHeight="15680" activeTab="1" xr2:uid="{4FDEE020-B19C-CD4F-AABD-53E7D007E88B}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="17840" windowHeight="15680" xr2:uid="{4FDEE020-B19C-CD4F-AABD-53E7D007E88B}"/>
   </bookViews>
   <sheets>
     <sheet name="Depreciation_Schedule" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="loan_amt">Debt_Amortisation!$F$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -161,19 +161,13 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -205,7 +199,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -247,25 +241,25 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="C2">
-            <v>130</v>
+            <v>13000</v>
           </cell>
           <cell r="D2">
-            <v>780</v>
+            <v>78000</v>
           </cell>
         </row>
         <row r="3">
           <cell r="D3">
-            <v>1190</v>
+            <v>119000</v>
           </cell>
         </row>
         <row r="4">
           <cell r="D4">
-            <v>60</v>
+            <v>6000</v>
           </cell>
         </row>
         <row r="5">
           <cell r="D5">
-            <v>2030</v>
+            <v>203000</v>
           </cell>
         </row>
       </sheetData>
@@ -657,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9397E6-CE87-E540-9924-21285156A04C}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,15 +710,15 @@
       </c>
       <c r="D2">
         <f>[1]Capex!$D$2</f>
-        <v>780</v>
+        <v>78000</v>
       </c>
       <c r="G2">
         <f>[1]Capex!$D$3</f>
-        <v>1190</v>
+        <v>119000</v>
       </c>
       <c r="J2">
         <f>[1]Capex!$D$4</f>
-        <v>60</v>
+        <v>6000</v>
       </c>
       <c r="K2">
         <f>H2+E2+B2</f>
@@ -738,43 +732,43 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" ref="B3">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="D3">
         <f>D2-B3</f>
-        <v>742.95</v>
+        <v>74295</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" ref="E3">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" ref="F3">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="G3">
         <f>G2-E3</f>
-        <v>1133.4749999999999</v>
+        <v>113347.5</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" ref="H3">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="J3">
         <f>J2-H3</f>
-        <v>54.3</v>
+        <v>5430</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K22" si="0">H3+E3+B3</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -784,43 +778,43 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" ref="B4">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C4">
         <f>C3+B4</f>
-        <v>74.099999999999994</v>
+        <v>7410</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D22" si="2">D3-B4</f>
-        <v>705.90000000000009</v>
+        <v>70590</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F4">
         <f>F3+E4</f>
-        <v>113.05</v>
+        <v>11305</v>
       </c>
       <c r="G4">
         <f>G3-E4</f>
-        <v>1076.9499999999998</v>
+        <v>107695</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" ref="H4">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I4">
         <f>I3+H4</f>
-        <v>11.4</v>
+        <v>1140</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J21" si="3">J3-H4</f>
-        <v>48.599999999999994</v>
+        <f t="shared" ref="J4:J11" si="3">J3-H4</f>
+        <v>4860</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -830,43 +824,43 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" ref="B5">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C22" si="4">C4+B5</f>
-        <v>111.14999999999999</v>
+        <v>11115</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>668.85000000000014</v>
+        <v>66885</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F22" si="5">F4+E5</f>
-        <v>169.57499999999999</v>
+        <v>16957.5</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G22" si="6">G4-E5</f>
-        <v>1020.4249999999998</v>
+        <v>102042.5</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" ref="H5">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I21" si="7">I4+H5</f>
-        <v>17.100000000000001</v>
+        <f t="shared" ref="I5:I11" si="7">I4+H5</f>
+        <v>1710</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>42.899999999999991</v>
+        <v>4290</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -876,43 +870,43 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C6">
         <f t="shared" si="4"/>
-        <v>148.19999999999999</v>
+        <v>14820</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>631.80000000000018</v>
+        <v>63180</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" ref="E6">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
-        <v>226.1</v>
+        <v>22610</v>
       </c>
       <c r="G6">
         <f t="shared" si="6"/>
-        <v>963.89999999999986</v>
+        <v>96390</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" ref="H6">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
-        <v>22.8</v>
+        <v>2280</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>37.199999999999989</v>
+        <v>3720</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -922,43 +916,43 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" ref="B7">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C7">
         <f t="shared" si="4"/>
-        <v>185.25</v>
+        <v>18525</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>594.75000000000023</v>
+        <v>59475</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" ref="E7">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>282.625</v>
+        <v>28262.5</v>
       </c>
       <c r="G7">
         <f t="shared" si="6"/>
-        <v>907.37499999999989</v>
+        <v>90737.5</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" ref="H7">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>28.5</v>
+        <v>2850</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>31.499999999999989</v>
+        <v>3150</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -968,43 +962,43 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" ref="B8">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C8">
         <f t="shared" si="4"/>
-        <v>222.3</v>
+        <v>22230</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>557.70000000000027</v>
+        <v>55770</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" ref="E8">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
-        <v>339.15</v>
+        <v>33915</v>
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
-        <v>850.84999999999991</v>
+        <v>85085</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" ref="H8">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I8">
         <f t="shared" si="7"/>
-        <v>34.200000000000003</v>
+        <v>3420</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>25.79999999999999</v>
+        <v>2580</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1014,43 +1008,43 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" ref="B9">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C9">
         <f t="shared" si="4"/>
-        <v>259.35000000000002</v>
+        <v>25935</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>520.65000000000032</v>
+        <v>52065</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" ref="E9">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="5"/>
-        <v>395.67499999999995</v>
+        <v>39567.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="6"/>
-        <v>794.32499999999993</v>
+        <v>79432.5</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" ref="H9">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>39.900000000000006</v>
+        <v>3990</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>20.099999999999991</v>
+        <v>2010</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1060,43 +1054,43 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" ref="B10">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
-        <v>296.40000000000003</v>
+        <v>29640</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>483.60000000000031</v>
+        <v>48360</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" ref="E10">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="5"/>
-        <v>452.19999999999993</v>
+        <v>45220</v>
       </c>
       <c r="G10">
         <f t="shared" si="6"/>
-        <v>737.8</v>
+        <v>73780</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" ref="H10">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
-        <v>45.600000000000009</v>
+        <v>4560</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>14.399999999999991</v>
+        <v>1440</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1106,43 +1100,43 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" ref="B11">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>333.45000000000005</v>
+        <v>33345</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>446.5500000000003</v>
+        <v>44655</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" ref="E11">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>508.72499999999991</v>
+        <v>50872.5</v>
       </c>
       <c r="G11">
         <f t="shared" si="6"/>
-        <v>681.27499999999998</v>
+        <v>68127.5</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" ref="H11">($J$2-($J$2*[1]!salvage_value))/[1]!yard_depreciation</f>
-        <v>5.7</v>
+        <v>570</v>
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>51.300000000000011</v>
+        <v>5130</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>8.6999999999999922</v>
+        <v>870</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1152,31 +1146,31 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" ref="B12">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
-        <v>370.50000000000006</v>
+        <v>37050</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>409.50000000000028</v>
+        <v>40950</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="5"/>
-        <v>565.24999999999989</v>
+        <v>56525</v>
       </c>
       <c r="G12">
         <f t="shared" si="6"/>
-        <v>624.75</v>
+        <v>62475</v>
       </c>
       <c r="K12">
         <f>H12+E12+B12</f>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1186,31 +1180,31 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" ref="B13">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>407.55000000000007</v>
+        <v>40755</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>372.45000000000027</v>
+        <v>37245</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" ref="E13">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>621.77499999999986</v>
+        <v>62177.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="6"/>
-        <v>568.22500000000002</v>
+        <v>56822.5</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1220,31 +1214,31 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" ref="B14">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>444.60000000000008</v>
+        <v>44460</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>335.40000000000026</v>
+        <v>33540</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" ref="E14">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>678.29999999999984</v>
+        <v>67830</v>
       </c>
       <c r="G14">
         <f t="shared" si="6"/>
-        <v>511.70000000000005</v>
+        <v>51170</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1254,31 +1248,31 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>481.65000000000009</v>
+        <v>48165</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>298.35000000000025</v>
+        <v>29835</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" ref="E15">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="5"/>
-        <v>734.82499999999982</v>
+        <v>73482.5</v>
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>455.17500000000007</v>
+        <v>45517.5</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1288,31 +1282,31 @@
       </c>
       <c r="B16" cm="1">
         <f t="array" ref="B16">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>518.70000000000005</v>
+        <v>51870</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>261.30000000000024</v>
+        <v>26130</v>
       </c>
       <c r="E16" cm="1">
         <f t="array" ref="E16">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F16">
         <f t="shared" si="5"/>
-        <v>791.3499999999998</v>
+        <v>79135</v>
       </c>
       <c r="G16">
         <f t="shared" si="6"/>
-        <v>398.65000000000009</v>
+        <v>39865</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1322,31 +1316,31 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" ref="B17">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
-        <v>555.75</v>
+        <v>55575</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>224.25000000000023</v>
+        <v>22425</v>
       </c>
       <c r="E17" cm="1">
         <f t="array" ref="E17">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F17">
         <f t="shared" si="5"/>
-        <v>847.87499999999977</v>
+        <v>84787.5</v>
       </c>
       <c r="G17">
         <f t="shared" si="6"/>
-        <v>342.12500000000011</v>
+        <v>34212.5</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1356,31 +1350,31 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" ref="B18">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>592.79999999999995</v>
+        <v>59280</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>187.20000000000022</v>
+        <v>18720</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" ref="E18">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>904.39999999999975</v>
+        <v>90440</v>
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
-        <v>285.60000000000014</v>
+        <v>28560</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1390,31 +1384,31 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" ref="B19">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
-        <v>629.84999999999991</v>
+        <v>62985</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>150.1500000000002</v>
+        <v>15015</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" ref="E19">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>960.92499999999973</v>
+        <v>96092.5</v>
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
-        <v>229.07500000000013</v>
+        <v>22907.5</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1424,31 +1418,31 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" ref="B20">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>666.89999999999986</v>
+        <v>66690</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>113.10000000000021</v>
+        <v>11310</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" ref="E20">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>1017.4499999999997</v>
+        <v>101745</v>
       </c>
       <c r="G20">
         <f t="shared" si="6"/>
-        <v>172.55000000000013</v>
+        <v>17255</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1458,31 +1452,31 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" ref="B21">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
-        <v>703.94999999999982</v>
+        <v>70395</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>76.05000000000021</v>
+        <v>7605</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" ref="E21">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>1073.9749999999997</v>
+        <v>107397.5</v>
       </c>
       <c r="G21">
         <f t="shared" si="6"/>
-        <v>116.02500000000012</v>
+        <v>11602.5</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1492,31 +1486,31 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" ref="B22">($D$2-($D$2*[1]!salvage_value))/[1]!crane_depreciation</f>
-        <v>37.049999999999997</v>
+        <v>3705</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>740.99999999999977</v>
+        <v>74100</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>39.000000000000213</v>
+        <v>3900</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" ref="E22">($G$2-([1]!salvage_value*$G$2))/[1]!crane_depreciation</f>
-        <v>56.524999999999999</v>
+        <v>5652.5</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>1130.4999999999998</v>
+        <v>113050</v>
       </c>
       <c r="G22">
         <f t="shared" si="6"/>
-        <v>59.500000000000121</v>
+        <v>5950</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>93.574999999999989</v>
+        <v>9357.5</v>
       </c>
     </row>
   </sheetData>
@@ -1529,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E21E38-3CE4-E84F-A74B-1D98B2FCB054}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1564,7 @@
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2">[1]!subtotal_capex*[1]!debt</f>
-        <v>1421</v>
+        <v>142100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1580,27 +1574,27 @@
       </c>
       <c r="B3">
         <f>F2</f>
-        <v>1421</v>
+        <v>142100</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" ref="C3">B3*[1]!cost_of_debt</f>
-        <v>134.995</v>
+        <v>13499.5</v>
       </c>
       <c r="D3" s="2" cm="1">
         <f t="array" ref="D3">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt, 0)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E3" s="2">
         <f>D3-C3</f>
-        <v>91.322201514115136</v>
+        <v>9132.220151411515</v>
       </c>
       <c r="F3" s="2">
         <f>B3-E3</f>
-        <v>1329.677798485885</v>
+        <v>132967.77984858849</v>
       </c>
       <c r="G3">
         <f>(Depreciation_Schedule!K3)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1610,27 +1604,27 @@
       </c>
       <c r="B4" s="2">
         <f>F3</f>
-        <v>1329.677798485885</v>
+        <v>132967.77984858849</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">B4*[1]!cost_of_debt</f>
-        <v>126.31939085615907</v>
+        <v>12631.939085615906</v>
       </c>
       <c r="D4" s="2" cm="1">
         <f t="array" ref="D4">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E12" si="1">D4-C4</f>
-        <v>99.997810657956066</v>
+        <v>9999.7810657956088</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F13" si="2">B4-E4</f>
-        <v>1229.6799878279289</v>
+        <f t="shared" ref="F4:F12" si="2">B4-E4</f>
+        <v>122967.99878279287</v>
       </c>
       <c r="G4">
         <f>(Depreciation_Schedule!K4)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1639,28 +1633,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B13" si="3">F4</f>
-        <v>1229.6799878279289</v>
+        <f t="shared" ref="B5:B12" si="3">F4</f>
+        <v>122967.99878279287</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">B5*[1]!cost_of_debt</f>
-        <v>116.81959884365325</v>
+        <v>11681.959884365322</v>
       </c>
       <c r="D5" s="2" cm="1">
         <f t="array" ref="D5">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>109.49760267046189</v>
+        <v>10949.760267046193</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>1120.182385157467</v>
+        <v>112018.23851574668</v>
       </c>
       <c r="G5">
         <f>(Depreciation_Schedule!K5)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1670,27 +1664,27 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="3"/>
-        <v>1120.182385157467</v>
+        <v>112018.23851574668</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">B6*[1]!cost_of_debt</f>
-        <v>106.41732658995937</v>
+        <v>10641.732658995934</v>
       </c>
       <c r="D6" s="2" cm="1">
         <f t="array" ref="D6">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>119.89987492415577</v>
+        <v>11989.987492415581</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>1000.2825102333113</v>
+        <v>100028.2510233311</v>
       </c>
       <c r="G6">
         <f>(Depreciation_Schedule!K6)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1700,27 +1694,27 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="3"/>
-        <v>1000.2825102333113</v>
+        <v>100028.2510233311</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7">B7*[1]!cost_of_debt</f>
-        <v>95.02683847216457</v>
+        <v>9502.6838472164545</v>
       </c>
       <c r="D7" s="2" cm="1">
         <f t="array" ref="D7">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>131.29036304195057</v>
+        <v>13129.03630419506</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>868.9921471913608</v>
+        <v>86899.214719136042</v>
       </c>
       <c r="G7">
         <f>(Depreciation_Schedule!K7)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1730,27 +1724,27 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="3"/>
-        <v>868.9921471913608</v>
+        <v>86899.214719136042</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">B8*[1]!cost_of_debt</f>
-        <v>82.554253983179279</v>
+        <v>8255.4253983179242</v>
       </c>
       <c r="D8" s="2" cm="1">
         <f t="array" ref="D8">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>143.76294753093586</v>
+        <v>14376.294753093591</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>725.22919966042491</v>
+        <v>72522.919966042449</v>
       </c>
       <c r="G8">
         <f>(Depreciation_Schedule!K8)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1760,27 +1754,27 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="3"/>
-        <v>725.22919966042491</v>
+        <v>72522.919966042449</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">B9*[1]!cost_of_debt</f>
-        <v>68.896773967740373</v>
+        <v>6889.6773967740328</v>
       </c>
       <c r="D9" s="2" cm="1">
         <f t="array" ref="D9">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>157.42042754637475</v>
+        <v>15742.042754637481</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>567.80877211405016</v>
+        <v>56780.877211404964</v>
       </c>
       <c r="G9">
         <f>(Depreciation_Schedule!K9)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1790,27 +1784,27 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="3"/>
-        <v>567.80877211405016</v>
+        <v>56780.877211404964</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">B10*[1]!cost_of_debt</f>
-        <v>53.941833350834763</v>
+        <v>5394.1833350834713</v>
       </c>
       <c r="D10" s="2" cm="1">
         <f t="array" ref="D10">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>172.37536816328037</v>
+        <v>17237.536816328044</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>395.43340395076979</v>
+        <v>39543.340395076921</v>
       </c>
       <c r="G10">
         <f>(Depreciation_Schedule!K10)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1820,27 +1814,27 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="3"/>
-        <v>395.43340395076979</v>
+        <v>39543.340395076921</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">B11*[1]!cost_of_debt</f>
-        <v>37.566173375323132</v>
+        <v>3756.6173375323074</v>
       </c>
       <c r="D11" s="2" cm="1">
         <f t="array" ref="D11">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>188.75102813879201</v>
+        <v>18875.102813879206</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>206.68237581197778</v>
+        <v>20668.237581197714</v>
       </c>
       <c r="G11">
         <f>(Depreciation_Schedule!K11)*[1]Assumptions!$C$4</f>
-        <v>4.1695500000000001</v>
+        <v>416.95500000000004</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1850,27 +1844,27 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="3"/>
-        <v>206.68237581197778</v>
+        <v>20668.237581197714</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" ref="C12">B12*[1]!cost_of_debt</f>
-        <v>19.634825702137888</v>
+        <v>1963.482570213783</v>
       </c>
       <c r="D12" s="2" cm="1">
         <f t="array" ref="D12">PMT([1]!cost_of_debt, [1]!loan_tenor, -loan_amt)</f>
-        <v>226.31720151411514</v>
+        <v>22631.720151411515</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>206.68237581197724</v>
+        <v>20668.237581197733</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>5.4001247917767614E-13</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>(Depreciation_Schedule!K12)*[1]Assumptions!$C$4</f>
-        <v>3.9301499999999998</v>
+        <v>393.01500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
